--- a/po_analysis_by_asin/B083R7MM59_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7MM59_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,289 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>384</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>168</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B37" t="n">
         <v>136</v>
       </c>
     </row>
@@ -493,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,17 +771,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>552</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>304</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R7MM59_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7MM59_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,22 +722,6 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B36" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B37" t="n">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -749,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,14 +849,6 @@
         <v>552</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>304</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083R7MM59_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7MM59_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -749,7 +750,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -847,6 +848,635 @@
       </c>
       <c r="B13" t="n">
         <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-60.73327432583762</v>
+      </c>
+      <c r="D2" t="n">
+        <v>243.8973802666676</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-38.47050891951249</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236.2164013787937</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-44.48306436632997</v>
+      </c>
+      <c r="D4" t="n">
+        <v>247.659437715117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-39.71778977844529</v>
+      </c>
+      <c r="D5" t="n">
+        <v>244.1720762598679</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-41.07518670681191</v>
+      </c>
+      <c r="D6" t="n">
+        <v>244.3141073626756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-32.85870994015621</v>
+      </c>
+      <c r="D7" t="n">
+        <v>237.4187594373126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>107</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-39.15296850439334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>260.9535779271958</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-39.6051090030227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>251.0405711659447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>110</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-29.43012335681839</v>
+      </c>
+      <c r="D10" t="n">
+        <v>259.275333876062</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>112</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-29.40090487495903</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.9416145617073</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>113</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-23.72599337300892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>266.0773525194163</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>121</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-27.67786022349889</v>
+      </c>
+      <c r="D13" t="n">
+        <v>254.9633444006974</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>123</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-23.60073445025208</v>
+      </c>
+      <c r="D14" t="n">
+        <v>267.0101306277353</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>124</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.867742939026236</v>
+      </c>
+      <c r="D15" t="n">
+        <v>268.9881808955302</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>126</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.696554902849408</v>
+      </c>
+      <c r="D16" t="n">
+        <v>263.1763420932032</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>127</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-16.83446128956775</v>
+      </c>
+      <c r="D17" t="n">
+        <v>275.5568977315875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>129</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-18.69335252455391</v>
+      </c>
+      <c r="D18" t="n">
+        <v>270.2455364147551</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>130</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.662187233395935</v>
+      </c>
+      <c r="D19" t="n">
+        <v>268.2502109012177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>133</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-7.253167055097542</v>
+      </c>
+      <c r="D20" t="n">
+        <v>278.3711869233832</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>135</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-23.99054752529781</v>
+      </c>
+      <c r="D21" t="n">
+        <v>273.2310966189456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>136</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.101041968064066</v>
+      </c>
+      <c r="D22" t="n">
+        <v>284.961731984683</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>138</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.014054751756365</v>
+      </c>
+      <c r="D23" t="n">
+        <v>288.5886599672523</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>152</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.19146388832105</v>
+      </c>
+      <c r="D24" t="n">
+        <v>299.8253280027792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>154</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.546339989153595</v>
+      </c>
+      <c r="D25" t="n">
+        <v>290.9131500324114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>155</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.24334569549202</v>
+      </c>
+      <c r="D26" t="n">
+        <v>295.6354168852458</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>157</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19.71543439148746</v>
+      </c>
+      <c r="D27" t="n">
+        <v>302.5577106704474</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>158</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.06001716994365</v>
+      </c>
+      <c r="D28" t="n">
+        <v>290.7303753878352</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>160</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.80037465743688</v>
+      </c>
+      <c r="D29" t="n">
+        <v>302.3815811487132</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>163</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27.38006609313175</v>
+      </c>
+      <c r="D30" t="n">
+        <v>309.6444686013186</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>164</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.0141453732759</v>
+      </c>
+      <c r="D31" t="n">
+        <v>316.1677749906654</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>167</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22.0942925377156</v>
+      </c>
+      <c r="D32" t="n">
+        <v>313.7237935690571</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>169</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23.22288268724595</v>
+      </c>
+      <c r="D33" t="n">
+        <v>307.3582516713693</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>174</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23.17566455413375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>317.0016968150854</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>177</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40.91643597167072</v>
+      </c>
+      <c r="D35" t="n">
+        <v>324.5660225707098</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>178</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32.20337172569548</v>
+      </c>
+      <c r="D36" t="n">
+        <v>318.2170067758544</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>180</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.47638236893621</v>
+      </c>
+      <c r="D37" t="n">
+        <v>316.0374246658391</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40.43000357561458</v>
+      </c>
+      <c r="D38" t="n">
+        <v>326.7891263109462</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>183</v>
+      </c>
+      <c r="C39" t="n">
+        <v>43.42310891818809</v>
+      </c>
+      <c r="D39" t="n">
+        <v>317.5399221259033</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>185</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37.61501836550664</v>
+      </c>
+      <c r="D40" t="n">
+        <v>328.7871292625424</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>186</v>
+      </c>
+      <c r="C41" t="n">
+        <v>48.66021610472106</v>
+      </c>
+      <c r="D41" t="n">
+        <v>332.1998813019627</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>188</v>
+      </c>
+      <c r="C42" t="n">
+        <v>44.39064998305025</v>
+      </c>
+      <c r="D42" t="n">
+        <v>330.7532238821299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>189</v>
+      </c>
+      <c r="C43" t="n">
+        <v>45.26470752677714</v>
+      </c>
+      <c r="D43" t="n">
+        <v>340.7421078184347</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R7MM59_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7MM59_po_data.xlsx
@@ -861,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,16 +880,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -898,12 +888,6 @@
       <c r="B2" t="n">
         <v>93</v>
       </c>
-      <c r="C2" t="n">
-        <v>-60.73327432583762</v>
-      </c>
-      <c r="D2" t="n">
-        <v>243.8973802666676</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -912,12 +896,6 @@
       <c r="B3" t="n">
         <v>95</v>
       </c>
-      <c r="C3" t="n">
-        <v>-38.47050891951249</v>
-      </c>
-      <c r="D3" t="n">
-        <v>236.2164013787937</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -926,12 +904,6 @@
       <c r="B4" t="n">
         <v>96</v>
       </c>
-      <c r="C4" t="n">
-        <v>-44.48306436632997</v>
-      </c>
-      <c r="D4" t="n">
-        <v>247.659437715117</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -940,12 +912,6 @@
       <c r="B5" t="n">
         <v>102</v>
       </c>
-      <c r="C5" t="n">
-        <v>-39.71778977844529</v>
-      </c>
-      <c r="D5" t="n">
-        <v>244.1720762598679</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -954,12 +920,6 @@
       <c r="B6" t="n">
         <v>104</v>
       </c>
-      <c r="C6" t="n">
-        <v>-41.07518670681191</v>
-      </c>
-      <c r="D6" t="n">
-        <v>244.3141073626756</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -968,12 +928,6 @@
       <c r="B7" t="n">
         <v>105</v>
       </c>
-      <c r="C7" t="n">
-        <v>-32.85870994015621</v>
-      </c>
-      <c r="D7" t="n">
-        <v>237.4187594373126</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -982,12 +936,6 @@
       <c r="B8" t="n">
         <v>107</v>
       </c>
-      <c r="C8" t="n">
-        <v>-39.15296850439334</v>
-      </c>
-      <c r="D8" t="n">
-        <v>260.9535779271958</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -996,12 +944,6 @@
       <c r="B9" t="n">
         <v>109</v>
       </c>
-      <c r="C9" t="n">
-        <v>-39.6051090030227</v>
-      </c>
-      <c r="D9" t="n">
-        <v>251.0405711659447</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1010,12 +952,6 @@
       <c r="B10" t="n">
         <v>110</v>
       </c>
-      <c r="C10" t="n">
-        <v>-29.43012335681839</v>
-      </c>
-      <c r="D10" t="n">
-        <v>259.275333876062</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1024,12 +960,6 @@
       <c r="B11" t="n">
         <v>112</v>
       </c>
-      <c r="C11" t="n">
-        <v>-29.40090487495903</v>
-      </c>
-      <c r="D11" t="n">
-        <v>255.9416145617073</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1038,12 +968,6 @@
       <c r="B12" t="n">
         <v>113</v>
       </c>
-      <c r="C12" t="n">
-        <v>-23.72599337300892</v>
-      </c>
-      <c r="D12" t="n">
-        <v>266.0773525194163</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1052,12 +976,6 @@
       <c r="B13" t="n">
         <v>121</v>
       </c>
-      <c r="C13" t="n">
-        <v>-27.67786022349889</v>
-      </c>
-      <c r="D13" t="n">
-        <v>254.9633444006974</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1066,12 +984,6 @@
       <c r="B14" t="n">
         <v>123</v>
       </c>
-      <c r="C14" t="n">
-        <v>-23.60073445025208</v>
-      </c>
-      <c r="D14" t="n">
-        <v>267.0101306277353</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1080,12 +992,6 @@
       <c r="B15" t="n">
         <v>124</v>
       </c>
-      <c r="C15" t="n">
-        <v>-8.867742939026236</v>
-      </c>
-      <c r="D15" t="n">
-        <v>268.9881808955302</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1094,12 +1000,6 @@
       <c r="B16" t="n">
         <v>126</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.696554902849408</v>
-      </c>
-      <c r="D16" t="n">
-        <v>263.1763420932032</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1108,12 +1008,6 @@
       <c r="B17" t="n">
         <v>127</v>
       </c>
-      <c r="C17" t="n">
-        <v>-16.83446128956775</v>
-      </c>
-      <c r="D17" t="n">
-        <v>275.5568977315875</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1122,12 +1016,6 @@
       <c r="B18" t="n">
         <v>129</v>
       </c>
-      <c r="C18" t="n">
-        <v>-18.69335252455391</v>
-      </c>
-      <c r="D18" t="n">
-        <v>270.2455364147551</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1136,12 +1024,6 @@
       <c r="B19" t="n">
         <v>130</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.662187233395935</v>
-      </c>
-      <c r="D19" t="n">
-        <v>268.2502109012177</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1150,12 +1032,6 @@
       <c r="B20" t="n">
         <v>133</v>
       </c>
-      <c r="C20" t="n">
-        <v>-7.253167055097542</v>
-      </c>
-      <c r="D20" t="n">
-        <v>278.3711869233832</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1164,12 +1040,6 @@
       <c r="B21" t="n">
         <v>135</v>
       </c>
-      <c r="C21" t="n">
-        <v>-23.99054752529781</v>
-      </c>
-      <c r="D21" t="n">
-        <v>273.2310966189456</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1178,12 +1048,6 @@
       <c r="B22" t="n">
         <v>136</v>
       </c>
-      <c r="C22" t="n">
-        <v>7.101041968064066</v>
-      </c>
-      <c r="D22" t="n">
-        <v>284.961731984683</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1192,12 +1056,6 @@
       <c r="B23" t="n">
         <v>138</v>
       </c>
-      <c r="C23" t="n">
-        <v>-6.014054751756365</v>
-      </c>
-      <c r="D23" t="n">
-        <v>288.5886599672523</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1206,12 +1064,6 @@
       <c r="B24" t="n">
         <v>152</v>
       </c>
-      <c r="C24" t="n">
-        <v>10.19146388832105</v>
-      </c>
-      <c r="D24" t="n">
-        <v>299.8253280027792</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1220,12 +1072,6 @@
       <c r="B25" t="n">
         <v>154</v>
       </c>
-      <c r="C25" t="n">
-        <v>5.546339989153595</v>
-      </c>
-      <c r="D25" t="n">
-        <v>290.9131500324114</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1234,12 +1080,6 @@
       <c r="B26" t="n">
         <v>155</v>
       </c>
-      <c r="C26" t="n">
-        <v>26.24334569549202</v>
-      </c>
-      <c r="D26" t="n">
-        <v>295.6354168852458</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1248,12 +1088,6 @@
       <c r="B27" t="n">
         <v>157</v>
       </c>
-      <c r="C27" t="n">
-        <v>19.71543439148746</v>
-      </c>
-      <c r="D27" t="n">
-        <v>302.5577106704474</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1262,12 +1096,6 @@
       <c r="B28" t="n">
         <v>158</v>
       </c>
-      <c r="C28" t="n">
-        <v>14.06001716994365</v>
-      </c>
-      <c r="D28" t="n">
-        <v>290.7303753878352</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1276,12 +1104,6 @@
       <c r="B29" t="n">
         <v>160</v>
       </c>
-      <c r="C29" t="n">
-        <v>15.80037465743688</v>
-      </c>
-      <c r="D29" t="n">
-        <v>302.3815811487132</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1290,12 +1112,6 @@
       <c r="B30" t="n">
         <v>163</v>
       </c>
-      <c r="C30" t="n">
-        <v>27.38006609313175</v>
-      </c>
-      <c r="D30" t="n">
-        <v>309.6444686013186</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1304,12 +1120,6 @@
       <c r="B31" t="n">
         <v>164</v>
       </c>
-      <c r="C31" t="n">
-        <v>24.0141453732759</v>
-      </c>
-      <c r="D31" t="n">
-        <v>316.1677749906654</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1318,12 +1128,6 @@
       <c r="B32" t="n">
         <v>167</v>
       </c>
-      <c r="C32" t="n">
-        <v>22.0942925377156</v>
-      </c>
-      <c r="D32" t="n">
-        <v>313.7237935690571</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1332,12 +1136,6 @@
       <c r="B33" t="n">
         <v>169</v>
       </c>
-      <c r="C33" t="n">
-        <v>23.22288268724595</v>
-      </c>
-      <c r="D33" t="n">
-        <v>307.3582516713693</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1346,12 +1144,6 @@
       <c r="B34" t="n">
         <v>174</v>
       </c>
-      <c r="C34" t="n">
-        <v>23.17566455413375</v>
-      </c>
-      <c r="D34" t="n">
-        <v>317.0016968150854</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1360,12 +1152,6 @@
       <c r="B35" t="n">
         <v>177</v>
       </c>
-      <c r="C35" t="n">
-        <v>40.91643597167072</v>
-      </c>
-      <c r="D35" t="n">
-        <v>324.5660225707098</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1374,12 +1160,6 @@
       <c r="B36" t="n">
         <v>178</v>
       </c>
-      <c r="C36" t="n">
-        <v>32.20337172569548</v>
-      </c>
-      <c r="D36" t="n">
-        <v>318.2170067758544</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1388,12 +1168,6 @@
       <c r="B37" t="n">
         <v>180</v>
       </c>
-      <c r="C37" t="n">
-        <v>35.47638236893621</v>
-      </c>
-      <c r="D37" t="n">
-        <v>316.0374246658391</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1402,12 +1176,6 @@
       <c r="B38" t="n">
         <v>181</v>
       </c>
-      <c r="C38" t="n">
-        <v>40.43000357561458</v>
-      </c>
-      <c r="D38" t="n">
-        <v>326.7891263109462</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1416,12 +1184,6 @@
       <c r="B39" t="n">
         <v>183</v>
       </c>
-      <c r="C39" t="n">
-        <v>43.42310891818809</v>
-      </c>
-      <c r="D39" t="n">
-        <v>317.5399221259033</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1430,12 +1192,6 @@
       <c r="B40" t="n">
         <v>185</v>
       </c>
-      <c r="C40" t="n">
-        <v>37.61501836550664</v>
-      </c>
-      <c r="D40" t="n">
-        <v>328.7871292625424</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1444,12 +1200,6 @@
       <c r="B41" t="n">
         <v>186</v>
       </c>
-      <c r="C41" t="n">
-        <v>48.66021610472106</v>
-      </c>
-      <c r="D41" t="n">
-        <v>332.1998813019627</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1458,12 +1208,6 @@
       <c r="B42" t="n">
         <v>188</v>
       </c>
-      <c r="C42" t="n">
-        <v>44.39064998305025</v>
-      </c>
-      <c r="D42" t="n">
-        <v>330.7532238821299</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1471,12 +1215,6 @@
       </c>
       <c r="B43" t="n">
         <v>189</v>
-      </c>
-      <c r="C43" t="n">
-        <v>45.26470752677714</v>
-      </c>
-      <c r="D43" t="n">
-        <v>340.7421078184347</v>
       </c>
     </row>
   </sheetData>
